--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value976.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value976.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>-1</v>
+        <v>0.6921212077140808</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>0.9709581136703491</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.282326340675354</v>
       </c>
       <c r="D1">
-        <v>1.095964823347769</v>
+        <v>4.12547492980957</v>
       </c>
       <c r="E1">
-        <v>0.7283193078154626</v>
+        <v>2.416555643081665</v>
       </c>
     </row>
   </sheetData>
